--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_27.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2228935.309915968</v>
+        <v>2228935.309915967</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>109814.4757511615</v>
+        <v>447938.683636224</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>30.87399034677099</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.0435066463849</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.99033455509891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>22.69238920349899</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>213.305774396129</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498666</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.9138545113332</v>
       </c>
       <c r="D7" t="n">
-        <v>126.0887386816666</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.75176703872082</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>156.058273978505</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.37743995803473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1385,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H11" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>118.5796179100783</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>261.9959259958496</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.9404988026223</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>150.7696444085454</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>161.3134993275892</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H14" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>99.71884268366318</v>
+        <v>99.71884268366317</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>143.5541152141125</v>
+        <v>77.79778273982734</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>203.0589184824366</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H15" t="n">
-        <v>97.38999444196338</v>
+        <v>97.38999444196337</v>
       </c>
       <c r="I15" t="n">
-        <v>36.47348076827033</v>
+        <v>36.47348076827032</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>4.720873529840929</v>
+        <v>4.720873529840915</v>
       </c>
       <c r="S15" t="n">
         <v>143.1316361901922</v>
@@ -1762,31 +1762,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.9404988026221</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>79.17110521518477</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>235.8725802071996</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>210.5197786803569</v>
       </c>
       <c r="U17" t="n">
-        <v>251.11582180088</v>
+        <v>30.05977310295221</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>127.7709988846639</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>201.5584371314712</v>
@@ -2056,13 +2056,13 @@
         <v>222.4394153930256</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>105.3417732602482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,19 +2087,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>208.0312782815057</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T20" t="n">
-        <v>177.5166254234896</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U20" t="n">
         <v>251.11582180088</v>
@@ -2175,10 +2175,10 @@
         <v>135.8063861218148</v>
       </c>
       <c r="H21" t="n">
-        <v>97.38999444196337</v>
+        <v>97.38999444196338</v>
       </c>
       <c r="I21" t="n">
-        <v>36.47348076827032</v>
+        <v>36.47348076827033</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>4.720873529840915</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S21" t="n">
         <v>143.1316361901922</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>87.763817516305</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H22" t="n">
         <v>150.7696444085454</v>
@@ -2260,7 +2260,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J22" t="n">
-        <v>2.249572729045411</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>201.5584371314712</v>
+        <v>137.5114844373177</v>
       </c>
       <c r="T22" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.7491052132676</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>177.5166254234896</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U23" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>35.71853889244101</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2497,7 +2497,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J25" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>5.101035841645798</v>
       </c>
       <c r="T25" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I26" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>18.8607752264143</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>92.25798248574283</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2719,22 +2719,22 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H28" t="n">
-        <v>19.9488085727552</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>75.45804851147517</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>190.278205951245</v>
       </c>
       <c r="G29" t="n">
         <v>412.4298486781792</v>
@@ -2843,19 +2843,19 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V29" t="n">
-        <v>203.0589184824366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.93656970961602</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T31" t="n">
-        <v>136.456668163147</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H32" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I32" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>36.62068688960085</v>
+        <v>118.5796179100774</v>
       </c>
       <c r="U32" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>200.5402511067126</v>
+        <v>33.29343000808475</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1818899581257</v>
       </c>
       <c r="D35" t="n">
-        <v>117.5950698691606</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3326,13 +3326,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3430,22 +3430,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>116.6963819301808</v>
+        <v>11.66342424237172</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0733044349635</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H38" t="n">
         <v>310.0528293142925</v>
       </c>
       <c r="I38" t="n">
-        <v>99.71884268366321</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T38" t="n">
-        <v>36.62068688959994</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U38" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>111.1544186796686</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.720873529840958</v>
+        <v>4.720873529840929</v>
       </c>
       <c r="S39" t="n">
         <v>143.1316361901922</v>
@@ -3661,19 +3661,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>110.8784554988243</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7023003289308</v>
+        <v>33.64011076440741</v>
       </c>
       <c r="H40" t="n">
         <v>150.7696444085454</v>
@@ -3682,7 +3682,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S40" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>310.0528293142925</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>237.1948967876649</v>
+        <v>245.0377606907696</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3907,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J43" t="n">
-        <v>2.24957272904544</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.2788468646635</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>125.5613699787473</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>347.2221814227618</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3992,10 +3992,10 @@
         <v>412.4298486781792</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5166254234886</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>99.71884268366321</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.5197786803569</v>
       </c>
       <c r="U44" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,31 +4132,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>56.53139734449908</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>36.87393148548645</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.24957272904544</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548715</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287635</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4389,22 +4389,22 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694736</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694736</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>438.7118141694736</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148976</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1744.740694543503</v>
+        <v>1825.581288436855</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1456.618771496444</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1098.353072889693</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862885</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2134.880026519314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2134.880026519314</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1744.740694543503</v>
+        <v>2212.181128500977</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>181.3053441250782</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C7" t="n">
-        <v>181.3053441250782</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>181.3053441250782</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>181.3053441250782</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036444</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674651</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.620445413571</v>
+        <v>2539.514470837914</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.620445413571</v>
+        <v>2149.375138862102</v>
       </c>
     </row>
     <row r="9">
@@ -4884,10 +4884,10 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036444</v>
@@ -4984,28 +4984,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942401</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.1841540113767</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2339.652176582198</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C11" t="n">
-        <v>1970.689659641786</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D11" t="n">
-        <v>1612.423961035036</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E11" t="n">
-        <v>1226.635708436791</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F11" t="n">
-        <v>815.6498036471836</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G11" t="n">
-        <v>399.0539969015481</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H11" t="n">
-        <v>85.86932082650516</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I11" t="n">
         <v>85.86932082650516</v>
       </c>
       <c r="J11" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017697</v>
       </c>
       <c r="K11" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726833</v>
       </c>
       <c r="L11" t="n">
         <v>1409.142484443882</v>
       </c>
       <c r="M11" t="n">
-        <v>2125.527712278999</v>
+        <v>2125.527712279</v>
       </c>
       <c r="N11" t="n">
         <v>2838.872804512373</v>
@@ -5066,25 +5066,25 @@
         <v>4293.466041325258</v>
       </c>
       <c r="S11" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="T11" t="n">
-        <v>4293.466041325258</v>
+        <v>4148.461884543326</v>
       </c>
       <c r="U11" t="n">
-        <v>4173.688649496896</v>
+        <v>3894.809539289912</v>
       </c>
       <c r="V11" t="n">
-        <v>3842.625762153325</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W11" t="n">
-        <v>3489.857106883211</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X11" t="n">
-        <v>3116.391348622131</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y11" t="n">
-        <v>2726.25201664632</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>354.260678125206</v>
       </c>
       <c r="L12" t="n">
-        <v>914.6392027753793</v>
+        <v>547.5072609249548</v>
       </c>
       <c r="M12" t="n">
-        <v>1234.974522305081</v>
+        <v>1253.421789484572</v>
       </c>
       <c r="N12" t="n">
-        <v>1975.279521308892</v>
+        <v>1597.94244512219</v>
       </c>
       <c r="O12" t="n">
-        <v>2224.032935392855</v>
+        <v>2208.761210638485</v>
       </c>
       <c r="P12" t="n">
-        <v>2406.676413006206</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q12" t="n">
         <v>2634.034907031697</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1140.551345253822</v>
+        <v>508.4259592971962</v>
       </c>
       <c r="C13" t="n">
-        <v>971.6151623259146</v>
+        <v>508.4259592971962</v>
       </c>
       <c r="D13" t="n">
-        <v>821.4985229135789</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="E13" t="n">
-        <v>673.5854293311858</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="F13" t="n">
-        <v>526.6954818332754</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="G13" t="n">
         <v>358.3093198848604</v>
@@ -5221,28 +5221,28 @@
         <v>1284.935687478693</v>
       </c>
       <c r="R13" t="n">
-        <v>1284.935687478693</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S13" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="T13" t="n">
-        <v>1284.935687478693</v>
+        <v>960.7860579478834</v>
       </c>
       <c r="U13" t="n">
-        <v>1284.935687478693</v>
+        <v>797.8431293341569</v>
       </c>
       <c r="V13" t="n">
-        <v>1284.935687478693</v>
+        <v>797.8431293341569</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.935687478693</v>
+        <v>508.4259592971962</v>
       </c>
       <c r="X13" t="n">
-        <v>1284.935687478693</v>
+        <v>508.4259592971962</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.935687478693</v>
+        <v>508.4259592971962</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2440.378280303069</v>
+        <v>2127.193604228027</v>
       </c>
       <c r="C14" t="n">
-        <v>2071.415763362658</v>
+        <v>1758.231087287615</v>
       </c>
       <c r="D14" t="n">
-        <v>1713.150064755907</v>
+        <v>1399.965388680864</v>
       </c>
       <c r="E14" t="n">
-        <v>1327.361812157663</v>
+        <v>1014.17713608262</v>
       </c>
       <c r="F14" t="n">
-        <v>916.3759073680556</v>
+        <v>603.1912312930126</v>
       </c>
       <c r="G14" t="n">
-        <v>499.78010062242</v>
+        <v>186.595424547377</v>
       </c>
       <c r="H14" t="n">
         <v>186.595424547377</v>
       </c>
       <c r="I14" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J14" t="n">
         <v>315.4340448017692</v>
       </c>
       <c r="K14" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726828</v>
       </c>
       <c r="L14" t="n">
         <v>1409.142484443882</v>
@@ -5291,37 +5291,37 @@
         <v>2838.872804512373</v>
       </c>
       <c r="O14" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.2767091924</v>
       </c>
       <c r="P14" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291104</v>
       </c>
       <c r="Q14" t="n">
-        <v>4263.177005716608</v>
+        <v>4263.177005716609</v>
       </c>
       <c r="R14" t="n">
-        <v>4293.466041325257</v>
+        <v>4293.466041325258</v>
       </c>
       <c r="S14" t="n">
-        <v>4148.461884543325</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="T14" t="n">
-        <v>4148.461884543325</v>
+        <v>4214.882422396139</v>
       </c>
       <c r="U14" t="n">
-        <v>3943.351865874197</v>
+        <v>3961.230077142725</v>
       </c>
       <c r="V14" t="n">
-        <v>3943.351865874197</v>
+        <v>3630.167189799155</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.583210604083</v>
+        <v>3277.39853452904</v>
       </c>
       <c r="X14" t="n">
-        <v>3217.117452343003</v>
+        <v>2903.93277626796</v>
       </c>
       <c r="Y14" t="n">
-        <v>2826.978120367191</v>
+        <v>2513.793444292149</v>
       </c>
     </row>
     <row r="15">
@@ -5346,31 +5346,31 @@
         <v>358.2631201518067</v>
       </c>
       <c r="G15" t="n">
-        <v>221.0849523519937</v>
+        <v>221.0849523519938</v>
       </c>
       <c r="H15" t="n">
         <v>122.7112205924348</v>
       </c>
       <c r="I15" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J15" t="n">
-        <v>228.9031180673686</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K15" t="n">
-        <v>599.9915027548478</v>
+        <v>255.3542408015479</v>
       </c>
       <c r="L15" t="n">
-        <v>1160.370027405021</v>
+        <v>815.7327654517212</v>
       </c>
       <c r="M15" t="n">
-        <v>1788.722801183436</v>
+        <v>1136.068084981423</v>
       </c>
       <c r="N15" t="n">
-        <v>2133.243456821054</v>
+        <v>1480.588740619041</v>
       </c>
       <c r="O15" t="n">
-        <v>2381.996870905016</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P15" t="n">
         <v>2564.640348518367</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1140.551345253822</v>
+        <v>334.7763171030836</v>
       </c>
       <c r="C16" t="n">
-        <v>971.6151623259146</v>
+        <v>165.8401341751766</v>
       </c>
       <c r="D16" t="n">
-        <v>821.4985229135789</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="E16" t="n">
-        <v>673.5854293311858</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="F16" t="n">
-        <v>526.6954818332754</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="G16" t="n">
-        <v>358.3093198848604</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="H16" t="n">
-        <v>206.0167497752185</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="I16" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="J16" t="n">
-        <v>85.86932082650513</v>
+        <v>85.86932082650516</v>
       </c>
       <c r="K16" t="n">
         <v>212.046385895188</v>
       </c>
       <c r="L16" t="n">
-        <v>429.0360225430045</v>
+        <v>429.0360225430046</v>
       </c>
       <c r="M16" t="n">
-        <v>668.2102932905834</v>
+        <v>668.2102932905836</v>
       </c>
       <c r="N16" t="n">
-        <v>907.1321508824185</v>
+        <v>907.1321508824187</v>
       </c>
       <c r="O16" t="n">
         <v>1111.798861477226</v>
@@ -5455,31 +5455,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q16" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="R16" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="S16" t="n">
-        <v>1284.935687478692</v>
+        <v>1284.935687478693</v>
       </c>
       <c r="T16" t="n">
-        <v>1284.935687478692</v>
+        <v>1060.249409303919</v>
       </c>
       <c r="U16" t="n">
-        <v>1284.935687478692</v>
+        <v>771.1092701392101</v>
       </c>
       <c r="V16" t="n">
-        <v>1284.935687478692</v>
+        <v>516.4247819333233</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.935687478692</v>
+        <v>516.4247819333233</v>
       </c>
       <c r="X16" t="n">
-        <v>1284.935687478692</v>
+        <v>516.4247819333233</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.935687478692</v>
+        <v>516.4247819333233</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1848.126825283943</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="C17" t="n">
-        <v>1479.164308343531</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D17" t="n">
-        <v>1120.898609736781</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E17" t="n">
-        <v>735.1103571385365</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F17" t="n">
-        <v>324.124452348929</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G17" t="n">
-        <v>85.86932082650513</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H17" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I17" t="n">
         <v>85.86932082650513</v>
@@ -5546,19 +5546,19 @@
         <v>3935.815643452056</v>
       </c>
       <c r="U17" t="n">
-        <v>3682.163298198641</v>
+        <v>3905.452236277356</v>
       </c>
       <c r="V17" t="n">
-        <v>3351.100410855071</v>
+        <v>3574.389348933786</v>
       </c>
       <c r="W17" t="n">
-        <v>2998.331755584956</v>
+        <v>3221.620693663671</v>
       </c>
       <c r="X17" t="n">
-        <v>2624.865997323876</v>
+        <v>2848.154935402591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2234.726665348065</v>
+        <v>2458.01560342678</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5592,19 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J18" t="n">
-        <v>228.9031180673686</v>
+        <v>151.3413632861662</v>
       </c>
       <c r="K18" t="n">
-        <v>599.9915027548478</v>
+        <v>522.4297479736455</v>
       </c>
       <c r="L18" t="n">
-        <v>1106.322130221402</v>
+        <v>1082.808272623819</v>
       </c>
       <c r="M18" t="n">
-        <v>1426.657449751104</v>
+        <v>1788.722801183436</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.178105388722</v>
+        <v>2133.243456821054</v>
       </c>
       <c r="O18" t="n">
         <v>2381.996870905016</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.86932082650513</v>
+        <v>385.5893934958386</v>
       </c>
       <c r="C19" t="n">
-        <v>85.86932082650513</v>
+        <v>385.5893934958386</v>
       </c>
       <c r="D19" t="n">
-        <v>85.86932082650513</v>
+        <v>256.5277784608245</v>
       </c>
       <c r="E19" t="n">
-        <v>85.86932082650513</v>
+        <v>256.5277784608245</v>
       </c>
       <c r="F19" t="n">
-        <v>85.86932082650513</v>
+        <v>256.5277784608245</v>
       </c>
       <c r="G19" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="H19" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="I19" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J19" t="n">
         <v>85.86932082650513</v>
@@ -5695,28 +5695,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R19" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S19" t="n">
-        <v>960.7860579478829</v>
+        <v>1081.341306537812</v>
       </c>
       <c r="T19" t="n">
-        <v>736.0997797731095</v>
+        <v>856.655028363039</v>
       </c>
       <c r="U19" t="n">
-        <v>446.9596406084003</v>
+        <v>856.655028363039</v>
       </c>
       <c r="V19" t="n">
-        <v>192.2751524025134</v>
+        <v>856.655028363039</v>
       </c>
       <c r="W19" t="n">
-        <v>85.86932082650513</v>
+        <v>567.2378583260784</v>
       </c>
       <c r="X19" t="n">
-        <v>85.86932082650513</v>
+        <v>567.2378583260784</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.86932082650513</v>
+        <v>567.2378583260784</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2026.467500507155</v>
+        <v>1848.126825283943</v>
       </c>
       <c r="C20" t="n">
-        <v>1657.504983566743</v>
+        <v>1479.164308343531</v>
       </c>
       <c r="D20" t="n">
-        <v>1299.239284959993</v>
+        <v>1120.898609736781</v>
       </c>
       <c r="E20" t="n">
-        <v>913.4510323617483</v>
+        <v>910.7660054120275</v>
       </c>
       <c r="F20" t="n">
-        <v>502.4651275721407</v>
+        <v>499.78010062242</v>
       </c>
       <c r="G20" t="n">
-        <v>85.86932082650513</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H20" t="n">
-        <v>85.86932082650513</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I20" t="n">
         <v>85.86932082650513</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4340448017696</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K20" t="n">
-        <v>780.236861772683</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L20" t="n">
         <v>1409.142484443882</v>
@@ -5762,13 +5762,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N20" t="n">
-        <v>2838.872804512373</v>
+        <v>2838.872804512372</v>
       </c>
       <c r="O20" t="n">
-        <v>3467.276709192399</v>
+        <v>3467.276709192398</v>
       </c>
       <c r="P20" t="n">
-        <v>3965.930520291103</v>
+        <v>3965.930520291102</v>
       </c>
       <c r="Q20" t="n">
         <v>4263.177005716608</v>
@@ -5777,25 +5777,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S20" t="n">
-        <v>4293.466041325257</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T20" t="n">
-        <v>4114.156318675267</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U20" t="n">
-        <v>3860.503973421853</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V20" t="n">
-        <v>3529.441086078282</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W20" t="n">
-        <v>3176.672430808168</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X20" t="n">
-        <v>2803.206672547088</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y20" t="n">
-        <v>2413.067340571276</v>
+        <v>2234.726665348065</v>
       </c>
     </row>
     <row r="21">
@@ -5829,19 +5829,19 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9031180673686</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K21" t="n">
-        <v>354.260678125206</v>
+        <v>229.7589550546421</v>
       </c>
       <c r="L21" t="n">
-        <v>914.6392027753793</v>
+        <v>790.1374797048154</v>
       </c>
       <c r="M21" t="n">
-        <v>1462.333016330572</v>
+        <v>1496.052008264433</v>
       </c>
       <c r="N21" t="n">
-        <v>2202.638015334383</v>
+        <v>1840.572663902051</v>
       </c>
       <c r="O21" t="n">
         <v>2451.391429418346</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>446.9596406084008</v>
+        <v>693.3593690752778</v>
       </c>
       <c r="C22" t="n">
-        <v>446.9596406084008</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="D22" t="n">
-        <v>446.9596406084008</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="E22" t="n">
-        <v>446.9596406084008</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="F22" t="n">
-        <v>446.9596406084008</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="G22" t="n">
-        <v>358.3093198848604</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H22" t="n">
-        <v>206.0167497752185</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I22" t="n">
-        <v>88.14161651240958</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J22" t="n">
         <v>85.86932082650513</v>
@@ -5917,10 +5917,10 @@
         <v>429.0360225430045</v>
       </c>
       <c r="M22" t="n">
-        <v>668.2102932905835</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N22" t="n">
-        <v>907.1321508824186</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O22" t="n">
         <v>1111.798861477226</v>
@@ -5929,31 +5929,31 @@
         <v>1263.405907429031</v>
       </c>
       <c r="Q22" t="n">
-        <v>1284.935687478693</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R22" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S22" t="n">
-        <v>960.7860579478834</v>
+        <v>1146.035198148069</v>
       </c>
       <c r="T22" t="n">
-        <v>736.09977977311</v>
+        <v>921.3489199732951</v>
       </c>
       <c r="U22" t="n">
-        <v>446.9596406084008</v>
+        <v>921.3489199732951</v>
       </c>
       <c r="V22" t="n">
-        <v>446.9596406084008</v>
+        <v>921.3489199732951</v>
       </c>
       <c r="W22" t="n">
-        <v>446.9596406084008</v>
+        <v>921.3489199732951</v>
       </c>
       <c r="X22" t="n">
-        <v>446.9596406084008</v>
+        <v>693.3593690752778</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.9596406084008</v>
+        <v>693.3593690752778</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2026.467500507155</v>
+        <v>2324.193869409445</v>
       </c>
       <c r="C23" t="n">
-        <v>1657.504983566743</v>
+        <v>1955.231352469033</v>
       </c>
       <c r="D23" t="n">
-        <v>1299.239284959993</v>
+        <v>1596.965653862283</v>
       </c>
       <c r="E23" t="n">
-        <v>913.4510323617483</v>
+        <v>1211.177401264039</v>
       </c>
       <c r="F23" t="n">
-        <v>502.4651275721407</v>
+        <v>800.1914964744312</v>
       </c>
       <c r="G23" t="n">
-        <v>85.86932082650513</v>
+        <v>383.5956897287957</v>
       </c>
       <c r="H23" t="n">
         <v>85.86932082650513</v>
@@ -5987,10 +5987,10 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J23" t="n">
-        <v>315.4340448017692</v>
+        <v>315.4340448017696</v>
       </c>
       <c r="K23" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726829</v>
       </c>
       <c r="L23" t="n">
         <v>1409.142484443882</v>
@@ -5999,13 +5999,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N23" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O23" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P23" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q23" t="n">
         <v>4263.177005716608</v>
@@ -6017,22 +6017,22 @@
         <v>4293.466041325257</v>
       </c>
       <c r="T23" t="n">
-        <v>4114.156318675267</v>
+        <v>4080.819800233987</v>
       </c>
       <c r="U23" t="n">
-        <v>3860.503973421853</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="V23" t="n">
-        <v>3529.441086078282</v>
+        <v>3827.167454980573</v>
       </c>
       <c r="W23" t="n">
-        <v>3176.672430808168</v>
+        <v>3474.398799710459</v>
       </c>
       <c r="X23" t="n">
-        <v>2803.206672547088</v>
+        <v>3100.933041449379</v>
       </c>
       <c r="Y23" t="n">
-        <v>2413.067340571276</v>
+        <v>2710.793709473567</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2646.853706366316</v>
+        <v>987.4225720727555</v>
       </c>
       <c r="C24" t="n">
-        <v>2472.400677085189</v>
+        <v>812.9695427916286</v>
       </c>
       <c r="D24" t="n">
-        <v>2323.466267423938</v>
+        <v>664.0351331303773</v>
       </c>
       <c r="E24" t="n">
-        <v>2164.228812418482</v>
+        <v>504.7976781249217</v>
       </c>
       <c r="F24" t="n">
-        <v>2017.694254445368</v>
+        <v>358.2631201518067</v>
       </c>
       <c r="G24" t="n">
-        <v>1880.516086645554</v>
+        <v>221.0849523519937</v>
       </c>
       <c r="H24" t="n">
-        <v>1782.142354885995</v>
+        <v>122.7112205924348</v>
       </c>
       <c r="I24" t="n">
-        <v>1745.300455120066</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J24" t="n">
-        <v>1745.300455120066</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K24" t="n">
-        <v>1870.658015177903</v>
+        <v>354.260678125206</v>
       </c>
       <c r="L24" t="n">
-        <v>2100.621121046252</v>
+        <v>792.2189078541376</v>
       </c>
       <c r="M24" t="n">
-        <v>2420.956440575954</v>
+        <v>1498.133436413755</v>
       </c>
       <c r="N24" t="n">
-        <v>3140.019874912601</v>
+        <v>1842.654092051373</v>
       </c>
       <c r="O24" t="n">
-        <v>3750.838640428895</v>
+        <v>2091.407506135336</v>
       </c>
       <c r="P24" t="n">
-        <v>4224.071482811927</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q24" t="n">
-        <v>4293.466041325257</v>
+        <v>2634.034907031697</v>
       </c>
       <c r="R24" t="n">
-        <v>4288.697482204206</v>
+        <v>2629.266347910645</v>
       </c>
       <c r="S24" t="n">
-        <v>4144.120071911082</v>
+        <v>2484.688937617521</v>
       </c>
       <c r="T24" t="n">
-        <v>3948.191777052954</v>
+        <v>2288.760642759394</v>
       </c>
       <c r="U24" t="n">
-        <v>3720.070307316815</v>
+        <v>2060.639173023254</v>
       </c>
       <c r="V24" t="n">
-        <v>3484.918199085073</v>
+        <v>1825.487064791512</v>
       </c>
       <c r="W24" t="n">
-        <v>3230.680842356871</v>
+        <v>1571.24970806331</v>
       </c>
       <c r="X24" t="n">
-        <v>3022.829342151338</v>
+        <v>1363.398207857777</v>
       </c>
       <c r="Y24" t="n">
-        <v>2815.069043386384</v>
+        <v>1155.637909092824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3887.131298320244</v>
+        <v>990.3659559855239</v>
       </c>
       <c r="C25" t="n">
-        <v>3718.195115392337</v>
+        <v>821.429773057617</v>
       </c>
       <c r="D25" t="n">
-        <v>3718.195115392337</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="E25" t="n">
-        <v>3682.11578317775</v>
+        <v>671.3131336452813</v>
       </c>
       <c r="F25" t="n">
-        <v>3535.22583567984</v>
+        <v>524.4231861473709</v>
       </c>
       <c r="G25" t="n">
-        <v>3366.839673731425</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H25" t="n">
-        <v>3214.547103621783</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I25" t="n">
-        <v>3096.671970358974</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J25" t="n">
-        <v>3094.39967467307</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K25" t="n">
-        <v>3220.576739741752</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L25" t="n">
-        <v>3437.566376389569</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M25" t="n">
-        <v>3676.740647137148</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N25" t="n">
-        <v>3915.662504728983</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O25" t="n">
-        <v>4120.32921532379</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P25" t="n">
-        <v>4271.936261275595</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q25" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R25" t="n">
-        <v>4293.466041325257</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S25" t="n">
-        <v>4293.466041325257</v>
+        <v>1279.783126022485</v>
       </c>
       <c r="T25" t="n">
-        <v>4068.779763150484</v>
+        <v>1279.783126022485</v>
       </c>
       <c r="U25" t="n">
-        <v>4068.779763150484</v>
+        <v>1279.783126022485</v>
       </c>
       <c r="V25" t="n">
-        <v>4068.779763150484</v>
+        <v>1279.783126022485</v>
       </c>
       <c r="W25" t="n">
-        <v>4068.779763150484</v>
+        <v>990.3659559855239</v>
       </c>
       <c r="X25" t="n">
-        <v>4068.779763150484</v>
+        <v>990.3659559855239</v>
       </c>
       <c r="Y25" t="n">
-        <v>4068.779763150484</v>
+        <v>990.3659559855239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2440.378280303069</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C26" t="n">
-        <v>2071.415763362658</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D26" t="n">
-        <v>1713.150064755907</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E26" t="n">
-        <v>1327.361812157663</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F26" t="n">
-        <v>916.3759073680556</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G26" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H26" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I26" t="n">
         <v>85.86932082650513</v>
@@ -6251,25 +6251,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S26" t="n">
-        <v>4274.414753217768</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T26" t="n">
-        <v>4274.414753217768</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U26" t="n">
-        <v>4274.414753217768</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="V26" t="n">
-        <v>3943.351865874197</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W26" t="n">
-        <v>3590.583210604083</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X26" t="n">
-        <v>3217.117452343003</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y26" t="n">
-        <v>2826.978120367191</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J27" t="n">
-        <v>85.86932082650513</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K27" t="n">
-        <v>211.2268808843425</v>
+        <v>599.9915027548478</v>
       </c>
       <c r="L27" t="n">
-        <v>771.6054055345159</v>
+        <v>829.9546086231969</v>
       </c>
       <c r="M27" t="n">
-        <v>1477.519934094134</v>
+        <v>1535.869137182814</v>
       </c>
       <c r="N27" t="n">
-        <v>1822.040589731751</v>
+        <v>2276.174136186626</v>
       </c>
       <c r="O27" t="n">
-        <v>2070.794003815713</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="P27" t="n">
-        <v>2370.389053735493</v>
+        <v>2564.640348518367</v>
       </c>
       <c r="Q27" t="n">
         <v>2634.034907031697</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>226.1670614648702</v>
+        <v>402.1685763573132</v>
       </c>
       <c r="C28" t="n">
-        <v>226.1670614648702</v>
+        <v>402.1685763573132</v>
       </c>
       <c r="D28" t="n">
-        <v>226.1670614648702</v>
+        <v>402.1685763573132</v>
       </c>
       <c r="E28" t="n">
-        <v>226.1670614648702</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="F28" t="n">
-        <v>226.1670614648702</v>
+        <v>254.2554827749201</v>
       </c>
       <c r="G28" t="n">
-        <v>226.1670614648702</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="H28" t="n">
-        <v>206.0167497752185</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I28" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J28" t="n">
         <v>85.86932082650513</v>
@@ -6406,28 +6406,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R28" t="n">
-        <v>1164.380438888763</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S28" t="n">
-        <v>960.7860579478829</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T28" t="n">
-        <v>736.0997797731095</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U28" t="n">
-        <v>446.9596406084003</v>
+        <v>995.7955483139833</v>
       </c>
       <c r="V28" t="n">
-        <v>446.9596406084003</v>
+        <v>919.5752972922912</v>
       </c>
       <c r="W28" t="n">
-        <v>446.9596406084003</v>
+        <v>630.1581272553306</v>
       </c>
       <c r="X28" t="n">
-        <v>446.9596406084003</v>
+        <v>402.1685763573132</v>
       </c>
       <c r="Y28" t="n">
-        <v>226.1670614648702</v>
+        <v>402.1685763573132</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2440.378280303069</v>
+        <v>2221.592583545023</v>
       </c>
       <c r="C29" t="n">
-        <v>2071.415763362658</v>
+        <v>1852.630066604611</v>
       </c>
       <c r="D29" t="n">
-        <v>1713.150064755907</v>
+        <v>1494.36436799786</v>
       </c>
       <c r="E29" t="n">
-        <v>1327.361812157663</v>
+        <v>1108.576115399616</v>
       </c>
       <c r="F29" t="n">
         <v>916.3759073680556</v>
@@ -6491,22 +6491,22 @@
         <v>4148.461884543325</v>
       </c>
       <c r="T29" t="n">
-        <v>4148.461884543325</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U29" t="n">
-        <v>4148.461884543325</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V29" t="n">
-        <v>3943.351865874197</v>
+        <v>3351.100410855071</v>
       </c>
       <c r="W29" t="n">
-        <v>3590.583210604083</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X29" t="n">
-        <v>3217.117452343003</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="Y29" t="n">
-        <v>2826.978120367191</v>
+        <v>2608.192423609144</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J30" t="n">
-        <v>85.86932082650513</v>
+        <v>104.0729930803638</v>
       </c>
       <c r="K30" t="n">
-        <v>211.2268808843425</v>
+        <v>213.3407931253903</v>
       </c>
       <c r="L30" t="n">
-        <v>441.1899867526917</v>
+        <v>406.587375925139</v>
       </c>
       <c r="M30" t="n">
-        <v>1147.104515312309</v>
+        <v>1112.501904484757</v>
       </c>
       <c r="N30" t="n">
-        <v>1887.40951431612</v>
+        <v>1852.806903488568</v>
       </c>
       <c r="O30" t="n">
-        <v>2136.162928400082</v>
+        <v>2463.625669004862</v>
       </c>
       <c r="P30" t="n">
-        <v>2564.640348518367</v>
+        <v>2578.365568593983</v>
       </c>
       <c r="Q30" t="n">
         <v>2634.034907031697</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.86932082650513</v>
+        <v>450.5763087673921</v>
       </c>
       <c r="C31" t="n">
-        <v>85.86932082650513</v>
+        <v>450.5763087673921</v>
       </c>
       <c r="D31" t="n">
-        <v>85.86932082650513</v>
+        <v>450.5763087673921</v>
       </c>
       <c r="E31" t="n">
-        <v>85.86932082650513</v>
+        <v>450.5763087673921</v>
       </c>
       <c r="F31" t="n">
-        <v>85.86932082650513</v>
+        <v>303.6863612694817</v>
       </c>
       <c r="G31" t="n">
-        <v>85.86932082650513</v>
+        <v>135.3001993210668</v>
       </c>
       <c r="H31" t="n">
-        <v>85.86932082650513</v>
+        <v>135.3001993210668</v>
       </c>
       <c r="I31" t="n">
         <v>85.86932082650513</v>
@@ -6643,28 +6643,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R31" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S31" t="n">
-        <v>1284.935687478692</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="T31" t="n">
-        <v>1147.100669132079</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="U31" t="n">
-        <v>857.96052996737</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="V31" t="n">
-        <v>603.2760417614832</v>
+        <v>960.7860579478829</v>
       </c>
       <c r="W31" t="n">
-        <v>313.8588717245225</v>
+        <v>671.3688879109222</v>
       </c>
       <c r="X31" t="n">
-        <v>85.86932082650513</v>
+        <v>671.3688879109222</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.86932082650513</v>
+        <v>450.5763087673921</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2023.782473557434</v>
+        <v>2339.652176582198</v>
       </c>
       <c r="C32" t="n">
-        <v>1654.819956617022</v>
+        <v>1970.689659641786</v>
       </c>
       <c r="D32" t="n">
-        <v>1296.554258010272</v>
+        <v>1612.423961035036</v>
       </c>
       <c r="E32" t="n">
-        <v>910.7660054120275</v>
+        <v>1226.635708436791</v>
       </c>
       <c r="F32" t="n">
-        <v>499.78010062242</v>
+        <v>815.6498036471836</v>
       </c>
       <c r="G32" t="n">
-        <v>499.78010062242</v>
+        <v>399.0539969015481</v>
       </c>
       <c r="H32" t="n">
-        <v>186.595424547377</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="I32" t="n">
         <v>85.86932082650513</v>
@@ -6725,25 +6725,25 @@
         <v>4293.466041325257</v>
       </c>
       <c r="S32" t="n">
-        <v>4148.461884543325</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="T32" t="n">
-        <v>4111.471291725547</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="U32" t="n">
-        <v>3857.818946472132</v>
+        <v>4173.688649496896</v>
       </c>
       <c r="V32" t="n">
-        <v>3526.756059128561</v>
+        <v>3842.625762153325</v>
       </c>
       <c r="W32" t="n">
-        <v>3173.987403858447</v>
+        <v>3489.857106883211</v>
       </c>
       <c r="X32" t="n">
-        <v>2800.521645597367</v>
+        <v>3116.391348622131</v>
       </c>
       <c r="Y32" t="n">
-        <v>2410.382313621556</v>
+        <v>2726.25201664632</v>
       </c>
     </row>
     <row r="33">
@@ -6777,13 +6777,13 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J33" t="n">
-        <v>228.9031180673686</v>
+        <v>141.1362289498887</v>
       </c>
       <c r="K33" t="n">
-        <v>599.9915027548478</v>
+        <v>512.224613637368</v>
       </c>
       <c r="L33" t="n">
-        <v>829.9546086231969</v>
+        <v>1072.603138287541</v>
       </c>
       <c r="M33" t="n">
         <v>1392.938457817243</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.86932082650513</v>
+        <v>254.805503754412</v>
       </c>
       <c r="C34" t="n">
         <v>85.86932082650513</v>
@@ -6895,13 +6895,13 @@
         <v>516.4247819333231</v>
       </c>
       <c r="W34" t="n">
-        <v>313.8588717245225</v>
+        <v>482.7950546524294</v>
       </c>
       <c r="X34" t="n">
-        <v>85.86932082650513</v>
+        <v>254.805503754412</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.86932082650513</v>
+        <v>254.805503754412</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2200.895480554057</v>
+        <v>2238.266157259754</v>
       </c>
       <c r="C35" t="n">
-        <v>1831.932963613645</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D35" t="n">
         <v>1713.150064755907</v>
@@ -6938,7 +6938,7 @@
         <v>315.4340448017692</v>
       </c>
       <c r="K35" t="n">
-        <v>780.2368617726825</v>
+        <v>780.2368617726827</v>
       </c>
       <c r="L35" t="n">
         <v>1409.142484443882</v>
@@ -6947,13 +6947,13 @@
         <v>2125.527712278999</v>
       </c>
       <c r="N35" t="n">
-        <v>2838.872804512372</v>
+        <v>2838.872804512373</v>
       </c>
       <c r="O35" t="n">
-        <v>3467.276709192398</v>
+        <v>3467.276709192399</v>
       </c>
       <c r="P35" t="n">
-        <v>3965.930520291102</v>
+        <v>3965.930520291103</v>
       </c>
       <c r="Q35" t="n">
         <v>4263.177005716608</v>
@@ -6974,13 +6974,13 @@
         <v>3351.100410855071</v>
       </c>
       <c r="W35" t="n">
-        <v>3351.100410855071</v>
+        <v>2998.331755584956</v>
       </c>
       <c r="X35" t="n">
-        <v>2977.634652593991</v>
+        <v>2624.865997323876</v>
       </c>
       <c r="Y35" t="n">
-        <v>2587.495320618179</v>
+        <v>2624.865997323876</v>
       </c>
     </row>
     <row r="36">
@@ -7014,22 +7014,22 @@
         <v>85.86932082650513</v>
       </c>
       <c r="J36" t="n">
-        <v>85.86932082650513</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K36" t="n">
-        <v>211.2268808843425</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="L36" t="n">
-        <v>771.6054055345159</v>
+        <v>789.2816427175419</v>
       </c>
       <c r="M36" t="n">
-        <v>1091.940725064218</v>
+        <v>1055.561882568767</v>
       </c>
       <c r="N36" t="n">
-        <v>1832.245724068029</v>
+        <v>1795.866881572579</v>
       </c>
       <c r="O36" t="n">
-        <v>2381.996870905016</v>
+        <v>2406.685647088873</v>
       </c>
       <c r="P36" t="n">
         <v>2564.640348518367</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>372.130616037729</v>
+        <v>247.835946703259</v>
       </c>
       <c r="C37" t="n">
-        <v>372.130616037729</v>
+        <v>247.835946703259</v>
       </c>
       <c r="D37" t="n">
-        <v>372.130616037729</v>
+        <v>247.835946703259</v>
       </c>
       <c r="E37" t="n">
-        <v>372.130616037729</v>
+        <v>99.92285312086588</v>
       </c>
       <c r="F37" t="n">
-        <v>372.130616037729</v>
+        <v>99.92285312086588</v>
       </c>
       <c r="G37" t="n">
-        <v>203.744454089314</v>
+        <v>99.92285312086588</v>
       </c>
       <c r="H37" t="n">
-        <v>203.744454089314</v>
+        <v>99.92285312086588</v>
       </c>
       <c r="I37" t="n">
-        <v>85.86932082650513</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J37" t="n">
         <v>85.86932082650513</v>
@@ -7117,28 +7117,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R37" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S37" t="n">
-        <v>1132.336390069638</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T37" t="n">
-        <v>1132.336390069638</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="U37" t="n">
-        <v>843.1962509049292</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="V37" t="n">
-        <v>843.1962509049292</v>
+        <v>939.6941607139895</v>
       </c>
       <c r="W37" t="n">
-        <v>553.7790808679687</v>
+        <v>650.2769906770288</v>
       </c>
       <c r="X37" t="n">
-        <v>553.7790808679687</v>
+        <v>650.2769906770288</v>
       </c>
       <c r="Y37" t="n">
-        <v>553.7790808679687</v>
+        <v>429.4844115334987</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2023.782473557434</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C38" t="n">
-        <v>1654.819956617022</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D38" t="n">
-        <v>1296.554258010272</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E38" t="n">
-        <v>910.7660054120275</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F38" t="n">
-        <v>499.78010062242</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G38" t="n">
         <v>499.78010062242</v>
@@ -7169,19 +7169,19 @@
         <v>186.595424547377</v>
       </c>
       <c r="I38" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J38" t="n">
-        <v>315.4340448017695</v>
+        <v>315.4340448017692</v>
       </c>
       <c r="K38" t="n">
-        <v>780.2368617726828</v>
+        <v>780.2368617726825</v>
       </c>
       <c r="L38" t="n">
-        <v>1409.142484443881</v>
+        <v>1409.142484443882</v>
       </c>
       <c r="M38" t="n">
-        <v>2125.527712278998</v>
+        <v>2125.527712278999</v>
       </c>
       <c r="N38" t="n">
         <v>2838.872804512372</v>
@@ -7193,31 +7193,31 @@
         <v>3965.930520291102</v>
       </c>
       <c r="Q38" t="n">
-        <v>4263.177005716607</v>
+        <v>4263.177005716608</v>
       </c>
       <c r="R38" t="n">
-        <v>4293.466041325256</v>
+        <v>4293.466041325257</v>
       </c>
       <c r="S38" t="n">
-        <v>4148.461884543324</v>
+        <v>4148.461884543325</v>
       </c>
       <c r="T38" t="n">
-        <v>4111.471291725547</v>
+        <v>3935.815643452056</v>
       </c>
       <c r="U38" t="n">
-        <v>3857.818946472132</v>
+        <v>3682.163298198641</v>
       </c>
       <c r="V38" t="n">
-        <v>3526.756059128561</v>
+        <v>3569.886107613117</v>
       </c>
       <c r="W38" t="n">
-        <v>3173.987403858447</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="X38" t="n">
-        <v>2800.521645597367</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y38" t="n">
-        <v>2410.382313621556</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>122.7112205924348</v>
       </c>
       <c r="I39" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="J39" t="n">
-        <v>228.9031180673685</v>
+        <v>228.9031180673686</v>
       </c>
       <c r="K39" t="n">
-        <v>354.2606781252059</v>
+        <v>599.9915027548478</v>
       </c>
       <c r="L39" t="n">
-        <v>687.0239292576256</v>
+        <v>1160.370027405021</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.938457817243</v>
+        <v>1480.705346934723</v>
       </c>
       <c r="N39" t="n">
-        <v>2133.243456821054</v>
+        <v>1746.461395338416</v>
       </c>
       <c r="O39" t="n">
-        <v>2381.996870905016</v>
+        <v>2357.280160854711</v>
       </c>
       <c r="P39" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q39" t="n">
         <v>2634.034907031697</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1081.341306537812</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="C40" t="n">
-        <v>969.3428666400101</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="D40" t="n">
-        <v>819.2262272276744</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="E40" t="n">
-        <v>671.3131336452813</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="F40" t="n">
-        <v>524.4231861473709</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="G40" t="n">
-        <v>356.0370241989559</v>
+        <v>358.3093198848604</v>
       </c>
       <c r="H40" t="n">
-        <v>203.744454089314</v>
+        <v>206.0167497752185</v>
       </c>
       <c r="I40" t="n">
-        <v>85.86932082650512</v>
+        <v>88.1416165124096</v>
       </c>
       <c r="J40" t="n">
-        <v>85.86932082650512</v>
+        <v>85.86932082650513</v>
       </c>
       <c r="K40" t="n">
-        <v>212.0463858951879</v>
+        <v>212.046385895188</v>
       </c>
       <c r="L40" t="n">
-        <v>429.0360225430044</v>
+        <v>429.0360225430045</v>
       </c>
       <c r="M40" t="n">
         <v>668.2102932905834</v>
@@ -7354,28 +7354,28 @@
         <v>1284.935687478692</v>
       </c>
       <c r="R40" t="n">
-        <v>1284.935687478692</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="S40" t="n">
-        <v>1081.341306537812</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="T40" t="n">
-        <v>1081.341306537812</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="U40" t="n">
-        <v>1081.341306537812</v>
+        <v>1164.380438888763</v>
       </c>
       <c r="V40" t="n">
-        <v>1081.341306537812</v>
+        <v>909.6959506828761</v>
       </c>
       <c r="W40" t="n">
-        <v>1081.341306537812</v>
+        <v>620.2787806459155</v>
       </c>
       <c r="X40" t="n">
-        <v>1081.341306537812</v>
+        <v>392.2892297478982</v>
       </c>
       <c r="Y40" t="n">
-        <v>1081.341306537812</v>
+        <v>392.2892297478982</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2339.652176582198</v>
+        <v>2440.378280303069</v>
       </c>
       <c r="C41" t="n">
-        <v>1970.689659641786</v>
+        <v>2071.415763362658</v>
       </c>
       <c r="D41" t="n">
-        <v>1612.423961035036</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.635708436791</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F41" t="n">
-        <v>815.6498036471836</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G41" t="n">
-        <v>399.0539969015481</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H41" t="n">
-        <v>85.86932082650512</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I41" t="n">
         <v>85.86932082650512</v>
@@ -7412,7 +7412,7 @@
         <v>315.4340448017695</v>
       </c>
       <c r="K41" t="n">
-        <v>780.2368617726827</v>
+        <v>780.2368617726828</v>
       </c>
       <c r="L41" t="n">
         <v>1409.142484443882</v>
@@ -7436,25 +7436,25 @@
         <v>4293.466041325256</v>
       </c>
       <c r="S41" t="n">
-        <v>4293.466041325256</v>
+        <v>4148.461884543324</v>
       </c>
       <c r="T41" t="n">
-        <v>4293.466041325256</v>
+        <v>4148.461884543324</v>
       </c>
       <c r="U41" t="n">
-        <v>4039.813696071842</v>
+        <v>4148.461884543324</v>
       </c>
       <c r="V41" t="n">
-        <v>3708.750808728271</v>
+        <v>3817.398997199753</v>
       </c>
       <c r="W41" t="n">
-        <v>3355.982153458157</v>
+        <v>3464.630341929639</v>
       </c>
       <c r="X41" t="n">
-        <v>3116.391348622131</v>
+        <v>3217.117452343003</v>
       </c>
       <c r="Y41" t="n">
-        <v>2726.25201664632</v>
+        <v>2826.978120367191</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>85.86932082650512</v>
       </c>
       <c r="J42" t="n">
-        <v>85.86932082650512</v>
+        <v>228.9031180673685</v>
       </c>
       <c r="K42" t="n">
-        <v>211.2268808843425</v>
+        <v>354.2606781252059</v>
       </c>
       <c r="L42" t="n">
-        <v>687.0239292576256</v>
+        <v>584.2237839935551</v>
       </c>
       <c r="M42" t="n">
-        <v>1392.938457817243</v>
+        <v>941.8167901985483</v>
       </c>
       <c r="N42" t="n">
-        <v>2133.243456821054</v>
+        <v>1286.337445836166</v>
       </c>
       <c r="O42" t="n">
-        <v>2381.996870905016</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P42" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q42" t="n">
         <v>2634.034907031697</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>238.2582559247453</v>
+        <v>653.0436111092021</v>
       </c>
       <c r="C43" t="n">
-        <v>238.2582559247453</v>
+        <v>653.0436111092021</v>
       </c>
       <c r="D43" t="n">
-        <v>88.1416165124096</v>
+        <v>502.9269716968663</v>
       </c>
       <c r="E43" t="n">
-        <v>88.1416165124096</v>
+        <v>502.9269716968663</v>
       </c>
       <c r="F43" t="n">
-        <v>88.1416165124096</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="G43" t="n">
-        <v>88.1416165124096</v>
+        <v>356.0370241989559</v>
       </c>
       <c r="H43" t="n">
-        <v>88.1416165124096</v>
+        <v>203.744454089314</v>
       </c>
       <c r="I43" t="n">
-        <v>88.1416165124096</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J43" t="n">
         <v>85.86932082650512</v>
@@ -7594,25 +7594,25 @@
         <v>1284.935687478692</v>
       </c>
       <c r="S43" t="n">
-        <v>1284.935687478692</v>
+        <v>1101.82574115075</v>
       </c>
       <c r="T43" t="n">
-        <v>1284.935687478692</v>
+        <v>1101.82574115075</v>
       </c>
       <c r="U43" t="n">
-        <v>1284.935687478692</v>
+        <v>1101.82574115075</v>
       </c>
       <c r="V43" t="n">
-        <v>1158.106020833493</v>
+        <v>1101.82574115075</v>
       </c>
       <c r="W43" t="n">
-        <v>868.6888507965325</v>
+        <v>1101.82574115075</v>
       </c>
       <c r="X43" t="n">
-        <v>640.6992998985152</v>
+        <v>873.8361902527322</v>
       </c>
       <c r="Y43" t="n">
-        <v>419.906720754985</v>
+        <v>653.0436111092021</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2205.777223157143</v>
+        <v>2432.842057880927</v>
       </c>
       <c r="C44" t="n">
-        <v>1836.814706216731</v>
+        <v>2063.879540940515</v>
       </c>
       <c r="D44" t="n">
-        <v>1478.549007609981</v>
+        <v>1713.150064755907</v>
       </c>
       <c r="E44" t="n">
-        <v>1092.760755011737</v>
+        <v>1327.361812157663</v>
       </c>
       <c r="F44" t="n">
-        <v>681.7748502221291</v>
+        <v>916.3759073680556</v>
       </c>
       <c r="G44" t="n">
-        <v>265.1790434764936</v>
+        <v>499.78010062242</v>
       </c>
       <c r="H44" t="n">
-        <v>85.86932082650512</v>
+        <v>186.595424547377</v>
       </c>
       <c r="I44" t="n">
         <v>85.86932082650512</v>
       </c>
       <c r="J44" t="n">
-        <v>315.4340448017694</v>
+        <v>315.4340448017695</v>
       </c>
       <c r="K44" t="n">
         <v>780.2368617726827</v>
@@ -7673,25 +7673,25 @@
         <v>4293.466041325256</v>
       </c>
       <c r="S44" t="n">
-        <v>4293.466041325256</v>
+        <v>4148.461884543324</v>
       </c>
       <c r="T44" t="n">
-        <v>4293.466041325256</v>
+        <v>3935.815643452055</v>
       </c>
       <c r="U44" t="n">
-        <v>4039.813696071842</v>
+        <v>3935.815643452055</v>
       </c>
       <c r="V44" t="n">
-        <v>3708.750808728271</v>
+        <v>3935.815643452055</v>
       </c>
       <c r="W44" t="n">
-        <v>3355.982153458157</v>
+        <v>3583.04698818194</v>
       </c>
       <c r="X44" t="n">
-        <v>2982.516395197077</v>
+        <v>3209.581229920861</v>
       </c>
       <c r="Y44" t="n">
-        <v>2592.377063221265</v>
+        <v>2819.441897945049</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>228.9031180673685</v>
       </c>
       <c r="K45" t="n">
-        <v>599.9915027548478</v>
+        <v>228.9031180673685</v>
       </c>
       <c r="L45" t="n">
-        <v>829.9546086231969</v>
+        <v>597.9676130712631</v>
       </c>
       <c r="M45" t="n">
-        <v>1392.938457817243</v>
+        <v>1303.882141630881</v>
       </c>
       <c r="N45" t="n">
-        <v>2133.243456821054</v>
+        <v>1648.402797268499</v>
       </c>
       <c r="O45" t="n">
-        <v>2381.996870905016</v>
+        <v>1897.156211352461</v>
       </c>
       <c r="P45" t="n">
-        <v>2564.640348518367</v>
+        <v>2370.389053735493</v>
       </c>
       <c r="Q45" t="n">
         <v>2634.034907031697</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3887.131298320243</v>
+        <v>292.0518991942973</v>
       </c>
       <c r="C46" t="n">
-        <v>3887.131298320243</v>
+        <v>123.1157162663904</v>
       </c>
       <c r="D46" t="n">
-        <v>3830.028876760143</v>
+        <v>123.1157162663904</v>
       </c>
       <c r="E46" t="n">
-        <v>3682.11578317775</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="F46" t="n">
-        <v>3535.225835679839</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="G46" t="n">
-        <v>3366.839673731424</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="H46" t="n">
-        <v>3214.547103621782</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="I46" t="n">
-        <v>3096.671970358973</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="J46" t="n">
-        <v>3094.399674673069</v>
+        <v>85.86932082650512</v>
       </c>
       <c r="K46" t="n">
-        <v>3220.576739741752</v>
+        <v>212.0463858951879</v>
       </c>
       <c r="L46" t="n">
-        <v>3437.566376389568</v>
+        <v>429.0360225430044</v>
       </c>
       <c r="M46" t="n">
-        <v>3676.740647137147</v>
+        <v>668.2102932905834</v>
       </c>
       <c r="N46" t="n">
-        <v>3915.662504728982</v>
+        <v>907.1321508824185</v>
       </c>
       <c r="O46" t="n">
-        <v>4120.329215323789</v>
+        <v>1111.798861477226</v>
       </c>
       <c r="P46" t="n">
-        <v>4271.936261275594</v>
+        <v>1263.405907429031</v>
       </c>
       <c r="Q46" t="n">
-        <v>4293.466041325256</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="R46" t="n">
-        <v>4293.466041325256</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="S46" t="n">
-        <v>4293.466041325256</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="T46" t="n">
-        <v>4068.779763150483</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="U46" t="n">
-        <v>4068.779763150483</v>
+        <v>1284.935687478692</v>
       </c>
       <c r="V46" t="n">
-        <v>4068.779763150483</v>
+        <v>1030.251199272805</v>
       </c>
       <c r="W46" t="n">
-        <v>4068.779763150483</v>
+        <v>740.8340292358448</v>
       </c>
       <c r="X46" t="n">
-        <v>4068.779763150483</v>
+        <v>512.8444783378275</v>
       </c>
       <c r="Y46" t="n">
-        <v>4068.779763150483</v>
+        <v>292.0518991942973</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8784,7 +8784,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>199.9236731822103</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>47.7458284907095</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>247.1834817466493</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,10 +10191,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,10 +10206,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>37.43761198941907</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>411.1039731656805</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>147.2157133545142</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I11" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U11" t="n">
-        <v>132.5362038908017</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>65.75633247428533</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.891481379315</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>222.4394153930256</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2487377730621</v>
+        <v>124.9352384454729</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>310.0528293142925</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>65.75633247428519</v>
       </c>
       <c r="T14" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U14" t="n">
-        <v>48.05690331844346</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.89148137931519</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>69.44436780302759</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.249572729045411</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T16" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2487377730621</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23744,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>176.5572684709796</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99.71884268366318</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>221.0560486979278</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>20.84447413354842</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>150.7696444085454</v>
@@ -23911,7 +23911,7 @@
         <v>116.6963819301808</v>
       </c>
       <c r="J19" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>181.1812250763428</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,19 +23975,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>173.899091790756</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.4298486781792</v>
       </c>
       <c r="H20" t="n">
-        <v>310.0528293142925</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>99.71884268366317</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>33.00315325686731</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>78.93848281262579</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>64.0469526941535</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24221,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>310.0528293142925</v>
+        <v>15.30372410102484</v>
       </c>
       <c r="I23" t="n">
         <v>99.71884268366318</v>
@@ -24257,13 +24257,13 @@
         <v>143.5541152141125</v>
       </c>
       <c r="T23" t="n">
-        <v>33.00315325686731</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.7154237541282</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S25" t="n">
-        <v>201.5584371314712</v>
+        <v>196.4574012898254</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U25" t="n">
         <v>286.2487377730621</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,16 +24491,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>124.6933399876982</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.11582180088</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>235.4942759843921</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24607,22 +24607,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>130.8208358357903</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.249572729045425</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.3496961040301</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>176.6795948123528</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>216.5978397904665</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24731,19 +24731,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.11582180088</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>124.6933399876984</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7023003289308</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I31" t="n">
-        <v>116.6963819301808</v>
+        <v>67.7598122205648</v>
       </c>
       <c r="J31" t="n">
         <v>2.249572729045425</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>201.5584371314712</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>85.98274722987858</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24929,13 +24929,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.71884268366318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24965,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>143.5541152141125</v>
       </c>
       <c r="T32" t="n">
-        <v>173.899091790756</v>
+        <v>91.94016077027945</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>85.98274722987844</v>
+        <v>253.2295683285062</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>200.0910018128819</v>
       </c>
       <c r="D35" t="n">
-        <v>237.0879717515223</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25214,13 +25214,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H37" t="n">
         <v>150.7696444085454</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>105.0329576878091</v>
       </c>
       <c r="J37" t="n">
-        <v>2.249572729045425</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.48513269650766</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T37" t="n">
-        <v>222.4394153930256</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2487377730621</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25403,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>412.4298486781792</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25442,19 +25442,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>173.8990917907569</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>216.5978397904663</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>56.36836559980355</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.0621895645234</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25570,7 +25570,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.24957272904544</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>119.3496961040301</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>201.5584371314712</v>
       </c>
       <c r="T40" t="n">
         <v>222.4394153930256</v>
@@ -25606,13 +25606,13 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.71884268366321</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.5197786803569</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>132.5362038908041</v>
+        <v>124.6933399876994</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25795,19 +25795,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7023003289308</v>
       </c>
       <c r="H43" t="n">
-        <v>150.7696444085454</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>116.6963819301808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>119.3496961040301</v>
       </c>
       <c r="S43" t="n">
-        <v>201.5584371314712</v>
+        <v>20.27959026680773</v>
       </c>
       <c r="T43" t="n">
         <v>222.4394153930256</v>
@@ -25843,10 +25843,10 @@
         <v>286.2487377730621</v>
       </c>
       <c r="V43" t="n">
-        <v>126.5762733450807</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>7.460860197921193</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>132.5362038908039</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>99.71884268366321</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>143.5541152141125</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.5197786803569</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.11582180088</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,31 +26020,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>92.08407567371327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109.5600311610827</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.7023003289308</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>150.7696444085454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.6963819301808</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.24957272904544</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26074,22 +26074,22 @@
         <v>201.5584371314712</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.4394153930256</v>
       </c>
       <c r="U46" t="n">
         <v>286.2487377730621</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>784732.1130390707</v>
+        <v>784732.113039071</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>784732.1130390709</v>
+        <v>784732.1130390711</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>784732.113039071</v>
+        <v>784732.1130390709</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>784732.1130390709</v>
+        <v>784732.113039071</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>784732.113039071</v>
+        <v>784732.1130390707</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>784732.1130390709</v>
+        <v>784732.113039071</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>784732.1130390707</v>
+        <v>784732.1130390709</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
-        <v>492738.7686524401</v>
+        <v>492738.7686524399</v>
       </c>
       <c r="F2" t="n">
         <v>492738.7686524399</v>
       </c>
       <c r="G2" t="n">
-        <v>492738.7686524401</v>
+        <v>492738.7686524399</v>
       </c>
       <c r="H2" t="n">
-        <v>492738.76865244</v>
+        <v>492738.7686524399</v>
       </c>
       <c r="I2" t="n">
-        <v>492738.7686524399</v>
+        <v>492738.7686524397</v>
       </c>
       <c r="J2" t="n">
-        <v>492738.7686524399</v>
+        <v>492738.7686524398</v>
       </c>
       <c r="K2" t="n">
-        <v>492738.7686524397</v>
+        <v>492738.7686524395</v>
       </c>
       <c r="L2" t="n">
-        <v>492738.76865244</v>
+        <v>492738.7686524398</v>
       </c>
       <c r="M2" t="n">
-        <v>492738.7686524397</v>
+        <v>492738.7686524394</v>
       </c>
       <c r="N2" t="n">
         <v>492738.7686524397</v>
       </c>
       <c r="O2" t="n">
-        <v>492738.7686524399</v>
+        <v>492738.7686524396</v>
       </c>
       <c r="P2" t="n">
-        <v>492738.7686524399</v>
+        <v>492738.7686524398</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>389812.6557155695</v>
+        <v>389812.6557155696</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99452.1423210786</v>
+        <v>99452.14232107862</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="F4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="G4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="H4" t="n">
         <v>714.7644130400807</v>
       </c>
       <c r="I4" t="n">
-        <v>714.7644130400805</v>
+        <v>714.7644130400806</v>
       </c>
       <c r="J4" t="n">
         <v>714.7644130400806</v>
@@ -26445,7 +26445,7 @@
         <v>714.7644130400806</v>
       </c>
       <c r="L4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400807</v>
       </c>
       <c r="M4" t="n">
         <v>714.7644130400806</v>
@@ -26454,10 +26454,10 @@
         <v>714.7644130400806</v>
       </c>
       <c r="O4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400805</v>
       </c>
       <c r="P4" t="n">
-        <v>714.7644130400806</v>
+        <v>714.7644130400805</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>80839.64176874657</v>
       </c>
       <c r="F5" t="n">
-        <v>80839.64176874656</v>
+        <v>80839.64176874657</v>
       </c>
       <c r="G5" t="n">
         <v>80839.64176874656</v>
@@ -26503,7 +26503,7 @@
         <v>80839.64176874656</v>
       </c>
       <c r="N5" t="n">
-        <v>80839.64176874654</v>
+        <v>80839.64176874656</v>
       </c>
       <c r="O5" t="n">
         <v>80839.64176874654</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-257682.9018001819</v>
+        <v>-257682.9018001821</v>
       </c>
       <c r="C6" t="n">
-        <v>332284.9774143625</v>
+        <v>332284.9774143628</v>
       </c>
       <c r="D6" t="n">
         <v>332284.9774143626</v>
       </c>
       <c r="E6" t="n">
-        <v>21371.70675508394</v>
+        <v>21371.70675508365</v>
       </c>
       <c r="F6" t="n">
         <v>411184.3624706533</v>
       </c>
       <c r="G6" t="n">
-        <v>411184.3624706535</v>
+        <v>411184.3624706533</v>
       </c>
       <c r="H6" t="n">
-        <v>411184.3624706534</v>
+        <v>411184.3624706533</v>
       </c>
       <c r="I6" t="n">
-        <v>411184.3624706533</v>
+        <v>411184.3624706531</v>
       </c>
       <c r="J6" t="n">
-        <v>234761.1432780604</v>
+        <v>234761.1432780602</v>
       </c>
       <c r="K6" t="n">
-        <v>411184.3624706531</v>
+        <v>411184.3624706529</v>
       </c>
       <c r="L6" t="n">
-        <v>411184.3624706534</v>
+        <v>411184.3624706532</v>
       </c>
       <c r="M6" t="n">
-        <v>311732.2201495745</v>
+        <v>311732.2201495742</v>
       </c>
       <c r="N6" t="n">
         <v>411184.3624706531</v>
       </c>
       <c r="O6" t="n">
-        <v>411184.3624706533</v>
+        <v>411184.362470653</v>
       </c>
       <c r="P6" t="n">
-        <v>411184.3624706533</v>
+        <v>411184.3624706532</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>714.6310981927826</v>
       </c>
       <c r="F3" t="n">
-        <v>714.6310981927825</v>
+        <v>714.6310981927826</v>
       </c>
       <c r="G3" t="n">
         <v>714.6310981927825</v>
       </c>
       <c r="H3" t="n">
-        <v>714.6310981927826</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="I3" t="n">
         <v>714.6310981927825</v>
@@ -26771,7 +26771,7 @@
         <v>714.6310981927825</v>
       </c>
       <c r="N3" t="n">
-        <v>714.6310981927824</v>
+        <v>714.6310981927825</v>
       </c>
       <c r="O3" t="n">
         <v>714.6310981927824</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545555</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>334.3989014242366</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>238.1944320096687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609829</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>123.4436280914703</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>342.5805025675086</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>168.6245956761328</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>152.3329665872946</v>
       </c>
       <c r="D7" t="n">
-        <v>22.52673433654574</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>327.9820746247598</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>60.39004637915284</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>119.2072133940601</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31367,7 +31367,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653214</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31604,7 +31604,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423999</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31847,19 +31847,19 @@
         <v>333.7529482644689</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>389.4739485150665</v>
       </c>
       <c r="N12" t="n">
-        <v>399.7821650163568</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.5595308203653</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>95.43696062280222</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.872888836955907</v>
+        <v>2.872888836955908</v>
       </c>
       <c r="H14" t="n">
-        <v>29.42197280147469</v>
+        <v>29.4219728014747</v>
       </c>
       <c r="I14" t="n">
         <v>110.7570468867427</v>
@@ -32002,16 +32002,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L14" t="n">
-        <v>453.3634051379197</v>
+        <v>453.3634051379198</v>
       </c>
       <c r="M14" t="n">
-        <v>504.4541419921343</v>
+        <v>504.4541419921344</v>
       </c>
       <c r="N14" t="n">
-        <v>512.6167374001353</v>
+        <v>512.6167374001354</v>
       </c>
       <c r="O14" t="n">
-        <v>484.049449027655</v>
+        <v>484.0494490276551</v>
       </c>
       <c r="P14" t="n">
         <v>413.125005865306</v>
@@ -32023,13 +32023,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S14" t="n">
-        <v>65.4659543721328</v>
+        <v>65.46595437213281</v>
       </c>
       <c r="T14" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2298311069564725</v>
+        <v>0.2298311069564726</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.537131041395796</v>
+        <v>1.537131041395797</v>
       </c>
       <c r="H15" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I15" t="n">
-        <v>52.92315208314475</v>
+        <v>52.92315208314476</v>
       </c>
       <c r="J15" t="n">
-        <v>145.2251743978371</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>248.2129541713554</v>
+        <v>44.57309082545996</v>
       </c>
       <c r="L15" t="n">
         <v>333.7529482644689</v>
       </c>
       <c r="M15" t="n">
-        <v>311.1287416653672</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>365.7225772043762</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>95.4369606228022</v>
+        <v>95.43696062280222</v>
       </c>
       <c r="S15" t="n">
-        <v>28.55153491364558</v>
+        <v>28.55153491364559</v>
       </c>
       <c r="T15" t="n">
-        <v>6.195716785275159</v>
+        <v>6.19571678527516</v>
       </c>
       <c r="U15" t="n">
         <v>0.1011270421970919</v>
@@ -32154,7 +32154,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J16" t="n">
-        <v>91.10960738762735</v>
+        <v>91.10960738762736</v>
       </c>
       <c r="K16" t="n">
         <v>149.7210727033403</v>
@@ -32178,16 +32178,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R16" t="n">
-        <v>57.94369527313936</v>
+        <v>57.94369527313937</v>
       </c>
       <c r="S16" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T16" t="n">
-        <v>5.506174035255863</v>
+        <v>5.506174035255864</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07029158342879835</v>
+        <v>0.07029158342879836</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,16 +32318,16 @@
         <v>248.2129541713554</v>
       </c>
       <c r="L18" t="n">
-        <v>279.1591127254596</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>365.7225772043761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.872888836955908</v>
+        <v>2.872888836955907</v>
       </c>
       <c r="H20" t="n">
-        <v>29.4219728014747</v>
+        <v>29.42197280147469</v>
       </c>
       <c r="I20" t="n">
         <v>110.7570468867427</v>
@@ -32476,16 +32476,16 @@
         <v>365.4422333939303</v>
       </c>
       <c r="L20" t="n">
-        <v>453.3634051379198</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M20" t="n">
-        <v>504.4541419921344</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N20" t="n">
-        <v>512.6167374001354</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O20" t="n">
-        <v>484.0494490276551</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P20" t="n">
         <v>413.125005865306</v>
@@ -32497,13 +32497,13 @@
         <v>180.4641034044317</v>
       </c>
       <c r="S20" t="n">
-        <v>65.46595437213281</v>
+        <v>65.4659543721328</v>
       </c>
       <c r="T20" t="n">
         <v>12.57607088377449</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2298311069564726</v>
+        <v>0.2298311069564725</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.537131041395797</v>
+        <v>1.537131041395796</v>
       </c>
       <c r="H21" t="n">
         <v>14.84544979453309</v>
       </c>
       <c r="I21" t="n">
-        <v>52.92315208314476</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J21" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.331719107516065</v>
       </c>
       <c r="L21" t="n">
         <v>333.7529482644689</v>
       </c>
       <c r="M21" t="n">
-        <v>229.6550444701931</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N21" t="n">
-        <v>399.7821650163568</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -32573,13 +32573,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>95.43696062280222</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S21" t="n">
-        <v>28.55153491364559</v>
+        <v>28.55153491364558</v>
       </c>
       <c r="T21" t="n">
-        <v>6.19571678527516</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U21" t="n">
         <v>0.1011270421970919</v>
@@ -32628,7 +32628,7 @@
         <v>38.75409299707746</v>
       </c>
       <c r="J22" t="n">
-        <v>91.10960738762736</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K22" t="n">
         <v>149.7210727033403</v>
@@ -32652,16 +32652,16 @@
         <v>107.9092958271102</v>
       </c>
       <c r="R22" t="n">
-        <v>57.94369527313937</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S22" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T22" t="n">
-        <v>5.506174035255864</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07029158342879836</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,22 +32786,22 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N24" t="n">
-        <v>378.3260390899277</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>365.7225772043761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>293.5246108784658</v>
@@ -33023,28 +33023,28 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L27" t="n">
-        <v>333.7529482644689</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>389.4739485150664</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>399.7821650163567</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>40.11393762401963</v>
       </c>
       <c r="P27" t="n">
-        <v>118.1329013196247</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>196.2134290736108</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>95.4369606228022</v>
@@ -33260,13 +33260,13 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M30" t="n">
         <v>389.4739485150664</v>
@@ -33275,13 +33275,13 @@
         <v>399.7821650163567</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P30" t="n">
-        <v>248.3171136413476</v>
+        <v>249.8732958881896</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R30" t="n">
         <v>95.4369606228022</v>
@@ -33503,10 +33503,10 @@
         <v>248.2129541713554</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M33" t="n">
-        <v>245.0995249134791</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>399.7821650163567</v>
@@ -33734,7 +33734,7 @@
         <v>52.92315208314475</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33749,10 +33749,10 @@
         <v>399.7821650163567</v>
       </c>
       <c r="O36" t="n">
-        <v>304.0381138919448</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>293.5246108784658</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33892,28 +33892,28 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J38" t="n">
-        <v>243.8328489255866</v>
+        <v>243.8328489255867</v>
       </c>
       <c r="K38" t="n">
-        <v>365.4422333939302</v>
+        <v>365.4422333939303</v>
       </c>
       <c r="L38" t="n">
-        <v>453.3634051379196</v>
+        <v>453.3634051379197</v>
       </c>
       <c r="M38" t="n">
-        <v>504.4541419921342</v>
+        <v>504.4541419921343</v>
       </c>
       <c r="N38" t="n">
-        <v>512.6167374001352</v>
+        <v>512.6167374001353</v>
       </c>
       <c r="O38" t="n">
-        <v>484.0494490276549</v>
+        <v>484.049449027655</v>
       </c>
       <c r="P38" t="n">
-        <v>413.1250058653059</v>
+        <v>413.125005865306</v>
       </c>
       <c r="Q38" t="n">
-        <v>310.2396743918224</v>
+        <v>310.2396743918225</v>
       </c>
       <c r="R38" t="n">
         <v>180.4641034044317</v>
@@ -33965,43 +33965,43 @@
         <v>1.537131041395796</v>
       </c>
       <c r="H39" t="n">
-        <v>14.84544979453308</v>
+        <v>14.84544979453309</v>
       </c>
       <c r="I39" t="n">
-        <v>52.92315208314474</v>
+        <v>52.92315208314475</v>
       </c>
       <c r="J39" t="n">
         <v>145.2251743978371</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>248.2129541713554</v>
       </c>
       <c r="L39" t="n">
-        <v>103.8385305697682</v>
+        <v>333.7529482644689</v>
       </c>
       <c r="M39" t="n">
-        <v>389.4739485150664</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>399.7821650163567</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R39" t="n">
-        <v>95.43696062280218</v>
+        <v>95.4369606228022</v>
       </c>
       <c r="S39" t="n">
         <v>28.55153491364558</v>
       </c>
       <c r="T39" t="n">
-        <v>6.195716785275158</v>
+        <v>6.195716785275159</v>
       </c>
       <c r="U39" t="n">
         <v>0.1011270421970919</v>
@@ -34044,13 +34044,13 @@
         <v>1.288679029527968</v>
       </c>
       <c r="H40" t="n">
-        <v>11.45752809889412</v>
+        <v>11.45752809889413</v>
       </c>
       <c r="I40" t="n">
-        <v>38.75409299707745</v>
+        <v>38.75409299707746</v>
       </c>
       <c r="J40" t="n">
-        <v>91.10960738762734</v>
+        <v>91.10960738762735</v>
       </c>
       <c r="K40" t="n">
         <v>149.7210727033403</v>
@@ -34071,19 +34071,19 @@
         <v>155.8598709894553</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.9092958271101</v>
+        <v>107.9092958271102</v>
       </c>
       <c r="R40" t="n">
-        <v>57.94369527313935</v>
+        <v>57.94369527313936</v>
       </c>
       <c r="S40" t="n">
         <v>22.45816090550104</v>
       </c>
       <c r="T40" t="n">
-        <v>5.506174035255862</v>
+        <v>5.506174035255863</v>
       </c>
       <c r="U40" t="n">
-        <v>0.07029158342879833</v>
+        <v>0.07029158342879835</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34147,7 +34147,7 @@
         <v>484.0494490276549</v>
       </c>
       <c r="P41" t="n">
-        <v>413.125005865306</v>
+        <v>413.1250058653059</v>
       </c>
       <c r="Q41" t="n">
         <v>310.2396743918224</v>
@@ -34208,28 +34208,28 @@
         <v>52.92315208314474</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>145.2251743978371</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>248.3171136413474</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>389.4739485150664</v>
+        <v>37.63402694473882</v>
       </c>
       <c r="N42" t="n">
-        <v>399.7821650163567</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>365.7225772043761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>293.5246108784657</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R42" t="n">
         <v>95.43696062280218</v>
@@ -34366,7 +34366,7 @@
         <v>110.7570468867427</v>
       </c>
       <c r="J44" t="n">
-        <v>243.8328489255865</v>
+        <v>243.8328489255866</v>
       </c>
       <c r="K44" t="n">
         <v>365.4422333939302</v>
@@ -34390,7 +34390,7 @@
         <v>310.2396743918224</v>
       </c>
       <c r="R44" t="n">
-        <v>180.4641034044317</v>
+        <v>180.4641034044316</v>
       </c>
       <c r="S44" t="n">
         <v>65.4659543721328</v>
@@ -34448,25 +34448,25 @@
         <v>145.2251743978371</v>
       </c>
       <c r="K45" t="n">
-        <v>248.2129541713554</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>140.5064536722682</v>
       </c>
       <c r="M45" t="n">
-        <v>245.0995249134791</v>
+        <v>389.4739485150664</v>
       </c>
       <c r="N45" t="n">
-        <v>399.7821650163567</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>293.5246108784657</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>196.2134290736108</v>
       </c>
       <c r="R45" t="n">
         <v>95.43696062280218</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047517</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35492,22 +35492,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>566.0389137880538</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>713.0449783430481</v>
       </c>
       <c r="N12" t="n">
-        <v>747.782827276577</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>359.4738766463458</v>
       </c>
       <c r="Q12" t="n">
-        <v>229.6550444701928</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>231.8835595709741</v>
+        <v>231.8835595709742</v>
       </c>
       <c r="K14" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L14" t="n">
-        <v>635.2582047183829</v>
+        <v>635.258204718383</v>
       </c>
       <c r="M14" t="n">
-        <v>723.6214422576941</v>
+        <v>723.6214422576942</v>
       </c>
       <c r="N14" t="n">
-        <v>720.5505982155286</v>
+        <v>720.5505982155287</v>
       </c>
       <c r="O14" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687137</v>
       </c>
       <c r="P14" t="n">
         <v>503.6907182815191</v>
@@ -35668,7 +35668,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R14" t="n">
-        <v>30.594985463282</v>
+        <v>30.59498546328203</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>144.4785830715792</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>374.836752209575</v>
+        <v>171.1968888636796</v>
       </c>
       <c r="L15" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M15" t="n">
-        <v>634.6997714933487</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040727</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35808,7 +35808,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L16" t="n">
-        <v>219.1814511594106</v>
+        <v>219.1814511594107</v>
       </c>
       <c r="M16" t="n">
         <v>241.590172472302</v>
@@ -35823,7 +35823,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q16" t="n">
-        <v>21.74725257541577</v>
+        <v>21.74725257541579</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>144.4785830715792</v>
+        <v>66.13337622187987</v>
       </c>
       <c r="K18" t="n">
         <v>374.836752209575</v>
       </c>
       <c r="L18" t="n">
-        <v>511.4450782490446</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>616.9886520366613</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>231.8835595709742</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K20" t="n">
         <v>469.4977949201145</v>
       </c>
       <c r="L20" t="n">
-        <v>635.258204718383</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M20" t="n">
-        <v>723.6214422576942</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N20" t="n">
-        <v>720.5505982155287</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O20" t="n">
-        <v>634.7514188687137</v>
+        <v>634.7514188687136</v>
       </c>
       <c r="P20" t="n">
         <v>503.6907182815191</v>
@@ -36142,7 +36142,7 @@
         <v>300.2489751772777</v>
       </c>
       <c r="R20" t="n">
-        <v>30.59498546328203</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>144.4785830715792</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>126.9555171457357</v>
       </c>
       <c r="L21" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M21" t="n">
-        <v>553.2260742981747</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N21" t="n">
-        <v>747.782827276577</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36282,7 +36282,7 @@
         <v>127.4515808774574</v>
       </c>
       <c r="L22" t="n">
-        <v>219.1814511594107</v>
+        <v>219.1814511594106</v>
       </c>
       <c r="M22" t="n">
         <v>241.590172472302</v>
@@ -36297,7 +36297,7 @@
         <v>153.1384302543488</v>
       </c>
       <c r="Q22" t="n">
-        <v>21.74725257541579</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K24" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>442.382050231244</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>713.044978343048</v>
       </c>
       <c r="N24" t="n">
-        <v>726.3267013501479</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>616.9886520366613</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
         <v>478.0129721040727</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L27" t="n">
-        <v>566.0389137880538</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>713.044978343048</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>747.7828272765769</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>291.3800124563047</v>
       </c>
       <c r="P27" t="n">
-        <v>302.6212625452316</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.3089427234383</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>18.38754773117037</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>110.3715151969964</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>195.1985684845947</v>
       </c>
       <c r="M30" t="n">
         <v>713.044978343048</v>
@@ -36923,13 +36923,13 @@
         <v>747.7828272765769</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P30" t="n">
-        <v>432.8054748669545</v>
+        <v>115.8988884738594</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>56.23165498758928</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>720.5505982155286</v>
       </c>
       <c r="O32" t="n">
-        <v>634.7514188687136</v>
+        <v>634.7514188687134</v>
       </c>
       <c r="P32" t="n">
         <v>503.6907182815191</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.4785830715792</v>
+        <v>55.82515972058944</v>
       </c>
       <c r="K33" t="n">
         <v>374.836752209575</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M33" t="n">
-        <v>568.6705547414607</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
         <v>747.7828272765769</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>566.0389137880538</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>268.9699392436622</v>
       </c>
       <c r="N36" t="n">
         <v>747.7828272765769</v>
       </c>
       <c r="O36" t="n">
-        <v>555.3041887242299</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>159.5502034641355</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37543,28 +37543,28 @@
         <v>231.8835595709741</v>
       </c>
       <c r="K38" t="n">
-        <v>469.4977949201144</v>
+        <v>469.4977949201145</v>
       </c>
       <c r="L38" t="n">
-        <v>635.2582047183828</v>
+        <v>635.2582047183829</v>
       </c>
       <c r="M38" t="n">
-        <v>723.621442257694</v>
+        <v>723.6214422576941</v>
       </c>
       <c r="N38" t="n">
-        <v>720.5505982155285</v>
+        <v>720.5505982155286</v>
       </c>
       <c r="O38" t="n">
         <v>634.7514188687136</v>
       </c>
       <c r="P38" t="n">
-        <v>503.690718281519</v>
+        <v>503.6907182815191</v>
       </c>
       <c r="Q38" t="n">
-        <v>300.2489751772776</v>
+        <v>300.2489751772777</v>
       </c>
       <c r="R38" t="n">
-        <v>30.59498546328197</v>
+        <v>30.594985463282</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>374.836752209575</v>
       </c>
       <c r="L39" t="n">
-        <v>336.1244960933532</v>
+        <v>566.0389137880538</v>
       </c>
       <c r="M39" t="n">
-        <v>713.0449783430479</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7828272765769</v>
+        <v>268.4404529330234</v>
       </c>
       <c r="O39" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366613</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>13.24130594018399</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,16 +37710,16 @@
         <v>241.590172472302</v>
       </c>
       <c r="N40" t="n">
-        <v>241.3352096887222</v>
+        <v>241.3352096887223</v>
       </c>
       <c r="O40" t="n">
-        <v>206.7340511058656</v>
+        <v>206.7340511058657</v>
       </c>
       <c r="P40" t="n">
-        <v>153.1384302543487</v>
+        <v>153.1384302543488</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.74725257541574</v>
+        <v>21.74725257541577</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>634.7514188687136</v>
       </c>
       <c r="P41" t="n">
-        <v>503.6907182815191</v>
+        <v>503.690718281519</v>
       </c>
       <c r="Q41" t="n">
         <v>300.2489751772776</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>144.4785830715792</v>
       </c>
       <c r="K42" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>480.6030791649324</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>713.0449783430479</v>
+        <v>361.2050567727204</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7828272765769</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>616.9886520366612</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040726</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>231.883559570974</v>
+        <v>231.8835595709741</v>
       </c>
       <c r="K44" t="n">
         <v>469.4977949201144</v>
@@ -38038,7 +38038,7 @@
         <v>300.2489751772776</v>
       </c>
       <c r="R44" t="n">
-        <v>30.59498546328197</v>
+        <v>30.59498546328192</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>144.4785830715792</v>
       </c>
       <c r="K45" t="n">
-        <v>374.836752209575</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>372.7924191958532</v>
       </c>
       <c r="M45" t="n">
-        <v>568.6705547414607</v>
+        <v>713.0449783430479</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7828272765769</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>478.0129721040726</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>266.3089427234383</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
